--- a/StructureDefinition-ext-R5-EvidenceVariable.cha.dBTAV.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.cha.dBTAV.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `EvidenceVariable.characteristic.definitionByTypeAndValue` 0..1 `BackboneElement`
 Following are the generation technical comments:
 Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:EvidenceVariable.characteristic</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,7 +343,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -432,7 +432,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:method.id</t>
@@ -460,7 +460,8 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:device.id</t>
@@ -492,7 +493,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -524,7 +525,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:offset.id</t>
@@ -886,7 +887,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="184.44140625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="224.55859375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
